--- a/auswertung/GOLF/GOLF_test_FM.xlsx
+++ b/auswertung/GOLF/GOLF_test_FM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="18915" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="GOLF_test_FM" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="44">
   <si>
     <t>model</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>als</t>
+  </si>
+  <si>
+    <t>MODEL MANUFACTURER</t>
+  </si>
+  <si>
+    <t>MODEL MANUFACTURER ENGINE_TYPE_GROUP</t>
   </si>
 </sst>
 </file>
@@ -968,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE104"/>
+  <dimension ref="A1:AE111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J82" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:Y104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10879,6 +10885,671 @@
         <v>0</v>
       </c>
     </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+      <c r="D105">
+        <v>1600</v>
+      </c>
+      <c r="E105">
+        <v>0.8</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>42</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>0.5</v>
+      </c>
+      <c r="L105" t="s">
+        <v>35</v>
+      </c>
+      <c r="M105" t="s">
+        <v>34</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>34</v>
+      </c>
+      <c r="R105">
+        <v>862.96123636973698</v>
+      </c>
+      <c r="S105">
+        <v>600.44000000000005</v>
+      </c>
+      <c r="T105">
+        <v>0.17077671531622199</v>
+      </c>
+      <c r="U105">
+        <v>0.25566180171112202</v>
+      </c>
+      <c r="V105">
+        <v>0.34155343063244398</v>
+      </c>
+      <c r="W105">
+        <v>0.42509646032544901</v>
+      </c>
+      <c r="X105">
+        <v>0.32261025165252699</v>
+      </c>
+      <c r="Y105">
+        <v>0.22201248813052099</v>
+      </c>
+      <c r="Z105">
+        <v>0.24509310518369401</v>
+      </c>
+      <c r="AA105">
+        <v>0.45780909243415502</v>
+      </c>
+      <c r="AB105">
+        <v>0.62103673880221399</v>
+      </c>
+      <c r="AC105">
+        <v>0.73444053011239696</v>
+      </c>
+      <c r="AD105">
+        <v>0.80993121959402803</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106">
+        <v>30</v>
+      </c>
+      <c r="D106">
+        <v>1600</v>
+      </c>
+      <c r="E106">
+        <v>0.8</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>36</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0.5</v>
+      </c>
+      <c r="L106" t="s">
+        <v>33</v>
+      </c>
+      <c r="M106" t="s">
+        <v>34</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>34</v>
+      </c>
+      <c r="R106">
+        <v>1019.83481697702</v>
+      </c>
+      <c r="S106">
+        <v>770.38</v>
+      </c>
+      <c r="T106">
+        <v>0.136050998154672</v>
+      </c>
+      <c r="U106">
+        <v>0.201979533635296</v>
+      </c>
+      <c r="V106">
+        <v>0.26706928367723498</v>
+      </c>
+      <c r="W106">
+        <v>0.33719174635128302</v>
+      </c>
+      <c r="X106">
+        <v>0.41546638141937198</v>
+      </c>
+      <c r="Y106">
+        <v>0.27061763785714799</v>
+      </c>
+      <c r="Z106">
+        <v>0.208522060057037</v>
+      </c>
+      <c r="AA106">
+        <v>0.39070625733937298</v>
+      </c>
+      <c r="AB106">
+        <v>0.53715819493373596</v>
+      </c>
+      <c r="AC106">
+        <v>0.65358161382318403</v>
+      </c>
+      <c r="AD106">
+        <v>0.73578258681429298</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107">
+        <v>30</v>
+      </c>
+      <c r="D107">
+        <v>1600</v>
+      </c>
+      <c r="E107">
+        <v>0.8</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>42</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0.5</v>
+      </c>
+      <c r="L107" t="s">
+        <v>33</v>
+      </c>
+      <c r="M107" t="s">
+        <v>34</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>34</v>
+      </c>
+      <c r="R107">
+        <v>920.63678493541397</v>
+      </c>
+      <c r="S107">
+        <v>648.87</v>
+      </c>
+      <c r="T107">
+        <v>0.164401945982218</v>
+      </c>
+      <c r="U107">
+        <v>0.23704076497231999</v>
+      </c>
+      <c r="V107">
+        <v>0.31504781077000499</v>
+      </c>
+      <c r="W107">
+        <v>0.39221607112900497</v>
+      </c>
+      <c r="X107">
+        <v>0.347424887420622</v>
+      </c>
+      <c r="Y107">
+        <v>0.23759193866203601</v>
+      </c>
+      <c r="Z107">
+        <v>0.22311692669015301</v>
+      </c>
+      <c r="AA107">
+        <v>0.43465861432645497</v>
+      </c>
+      <c r="AB107">
+        <v>0.59134373427277298</v>
+      </c>
+      <c r="AC107">
+        <v>0.709612481127328</v>
+      </c>
+      <c r="AD107">
+        <v>0.79248448246938397</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108">
+        <v>30</v>
+      </c>
+      <c r="D108">
+        <v>1600</v>
+      </c>
+      <c r="E108">
+        <v>0.8</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>42</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>0.5</v>
+      </c>
+      <c r="L108" t="s">
+        <v>33</v>
+      </c>
+      <c r="M108" t="s">
+        <v>34</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>34</v>
+      </c>
+      <c r="R108">
+        <v>897.97450025163596</v>
+      </c>
+      <c r="S108">
+        <v>627.86</v>
+      </c>
+      <c r="T108">
+        <v>0.162724375104848</v>
+      </c>
+      <c r="U108">
+        <v>0.25113236034222403</v>
+      </c>
+      <c r="V108">
+        <v>0.33148800536822698</v>
+      </c>
+      <c r="W108">
+        <v>0.40865626572722702</v>
+      </c>
+      <c r="X108">
+        <v>0.33435324375460002</v>
+      </c>
+      <c r="Y108">
+        <v>0.234544955703653</v>
+      </c>
+      <c r="Z108">
+        <v>0.23636973662137201</v>
+      </c>
+      <c r="AA108">
+        <v>0.44170441201140698</v>
+      </c>
+      <c r="AB108">
+        <v>0.60342224458983396</v>
+      </c>
+      <c r="AC108">
+        <v>0.72336856232175795</v>
+      </c>
+      <c r="AD108">
+        <v>0.80439523569870797</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109">
+        <v>30</v>
+      </c>
+      <c r="D109">
+        <v>1600</v>
+      </c>
+      <c r="E109">
+        <v>0.8</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>42</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0.5</v>
+      </c>
+      <c r="L109" t="s">
+        <v>33</v>
+      </c>
+      <c r="M109" t="s">
+        <v>34</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>34</v>
+      </c>
+      <c r="R109">
+        <v>912.08203824861596</v>
+      </c>
+      <c r="S109">
+        <v>654.02</v>
+      </c>
+      <c r="T109">
+        <v>0.164905217245429</v>
+      </c>
+      <c r="U109">
+        <v>0.237544036235531</v>
+      </c>
+      <c r="V109">
+        <v>0.31655762455963798</v>
+      </c>
+      <c r="W109">
+        <v>0.38735111558463298</v>
+      </c>
+      <c r="X109">
+        <v>0.34526395068003801</v>
+      </c>
+      <c r="Y109">
+        <v>0.23970182099057799</v>
+      </c>
+      <c r="Z109">
+        <v>0.22965945311189401</v>
+      </c>
+      <c r="AA109">
+        <v>0.425935245764134</v>
+      </c>
+      <c r="AB109">
+        <v>0.59067270592182497</v>
+      </c>
+      <c r="AC109">
+        <v>0.71045126656601199</v>
+      </c>
+      <c r="AD109">
+        <v>0.79114242576748905</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110">
+        <v>30</v>
+      </c>
+      <c r="D110">
+        <v>1600</v>
+      </c>
+      <c r="E110">
+        <v>0.8</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>43</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0.5</v>
+      </c>
+      <c r="L110" t="s">
+        <v>33</v>
+      </c>
+      <c r="M110" t="s">
+        <v>34</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>34</v>
+      </c>
+      <c r="R110">
+        <v>918.54228803891999</v>
+      </c>
+      <c r="S110">
+        <v>654.12</v>
+      </c>
+      <c r="T110">
+        <v>0.161046804227479</v>
+      </c>
+      <c r="U110">
+        <v>0.24089917799027</v>
+      </c>
+      <c r="V110">
+        <v>0.31337023989263502</v>
+      </c>
+      <c r="W110">
+        <v>0.39070625733937298</v>
+      </c>
+      <c r="X110">
+        <v>0.34449781736908802</v>
+      </c>
+      <c r="Y110">
+        <v>0.23663742117759201</v>
+      </c>
+      <c r="Z110">
+        <v>0.223955712128837</v>
+      </c>
+      <c r="AA110">
+        <v>0.43348431471229698</v>
+      </c>
+      <c r="AB110">
+        <v>0.59906056030867305</v>
+      </c>
+      <c r="AC110">
+        <v>0.71129005200469697</v>
+      </c>
+      <c r="AD110">
+        <v>0.79483308169770195</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111">
+        <v>30</v>
+      </c>
+      <c r="D111">
+        <v>1600</v>
+      </c>
+      <c r="E111">
+        <v>0.8</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>42</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0.5</v>
+      </c>
+      <c r="L111" t="s">
+        <v>35</v>
+      </c>
+      <c r="M111" t="s">
+        <v>34</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>34</v>
+      </c>
+      <c r="R111">
+        <v>876.35952642174095</v>
+      </c>
+      <c r="S111">
+        <v>617.11000000000104</v>
+      </c>
+      <c r="T111">
+        <v>0.16540848850863901</v>
+      </c>
+      <c r="U111">
+        <v>0.25079684616675102</v>
+      </c>
+      <c r="V111">
+        <v>0.33115249119275297</v>
+      </c>
+      <c r="W111">
+        <v>0.41167589330649201</v>
+      </c>
+      <c r="X111">
+        <v>0.33232418779103101</v>
+      </c>
+      <c r="Y111">
+        <v>0.224896487365569</v>
+      </c>
+      <c r="Z111">
+        <v>0.23687300788458299</v>
+      </c>
+      <c r="AA111">
+        <v>0.45327965106525803</v>
+      </c>
+      <c r="AB111">
+        <v>0.61902365374937096</v>
+      </c>
+      <c r="AC111">
+        <v>0.72806576077839302</v>
+      </c>
+      <c r="AD111">
+        <v>0.80087233685623205</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
